--- a/data/2/20230603-a1r-nc-session2-k_transcript.xlsx
+++ b/data/2/20230603-a1r-nc-session2-k_transcript.xlsx
@@ -1,465 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:03 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6C6B53-2BF3-8D43-A28F-0B8D52378373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230603-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"17:47"</t>
-  </si>
-  <si>
-    <t>I don't agree.</t>
-  </si>
-  <si>
-    <t>"17:55"</t>
-  </si>
-  <si>
-    <t>I'm pretty sure the delegates that the party has are already pretty well represented at the conventions.</t>
-  </si>
-  <si>
-    <t>"18:07"</t>
-  </si>
-  <si>
-    <t>I'd have to agree with with paga on that one and both of you guys. I think that they already have enough control. They don't need more control.</t>
-  </si>
-  <si>
-    <t>"19:28"</t>
-  </si>
-  <si>
-    <t>first of all,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> you have to have the Electoral College because if we go to a national popular vote, five states can totally control the entire process.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'm not a fan of RCV.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And I'm not a fan of changing it.</t>
-  </si>
-  <si>
-    <t>"19:55"</t>
-  </si>
-  <si>
-    <t>I'm not a fan of the Electoral College. I didn't realize how it was done until a couple of years ago, and it seems like the person that gets the most votes doesn't win the election, and I don't think that's right.</t>
-  </si>
-  <si>
-    <t>"20:15"</t>
-  </si>
-  <si>
-    <t>I think the Electoral College made sense in an earlier year when the country was much smaller and there was you could have very wide swings on, on popularity. I think the country this point is large enough to be able to have a popular vote and not have won one state override another one though. I don't think a national popular vote would be a good idea. I think each that should be up to each state should be a state level saying, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and I don't think amending the Constitution is a good idea because I opens up the door for more amendments to be made in the Constitution.</t>
-  </si>
-  <si>
-    <t>"20:53"</t>
-  </si>
-  <si>
-    <t>I think the time for the electoral college has passed, we have Communications in this country, we can reach everybody. We want to reach with all the issues and since the president is supposed to represent the entire country, I feel like the entire country should be equally weighted one vote to one person across the country. A person voting for president and Wyoming has</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Five times the impact on the presidential election, then somebody voting in California and I don't think that's right.</t>
-  </si>
-  <si>
-    <t>"21:32"</t>
-  </si>
-  <si>
-    <t>I think the Electoral College stay exactly as it is now, to make these changes to go to on the national popular vote. The elections would really be controlled by the coasts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> you know, if Walt said before five states could determine the winner and there's a lot of people in Mid America would have no representation</t>
-  </si>
-  <si>
-    <t>"22:10"</t>
-  </si>
-  <si>
-    <t>Technical issues with this unwise. Platform was unable to participate in the early morning or this discussion. I do listen to the panelists discussion and I guess I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> quickly can tell you that I'm an outlier. But as far as all of these issues which is in honor of in America would be viewed as nothing, more than academic political science, masturbation.</t>
-  </si>
-  <si>
-    <t>"23:43"</t>
-  </si>
-  <si>
-    <t>I think it would be horrible because if the voltage one state decides and give the majority of the votes to presidential candidate and then the electors would then go and vote for somebody else because of the national vote, and I'm totally against that.</t>
-  </si>
-  <si>
-    <t>"24:00"</t>
-  </si>
-  <si>
-    <t>These battles of already thought. When the country was founded, the founders of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That providers who are not institution and the same basic issues of urban versus rural domination. And in order to handle that they suck, the current system which works very well to balance things out between the voice of an uncontrolled Democratic mob versus the rest of the country.</t>
-  </si>
-  <si>
-    <t>"24:39"</t>
-  </si>
-  <si>
-    <t>Actually it's no different than a national popular vote. It's a popular National popular vote. Overrides the state vote, you have a national popular vote. You don't have to state representation.</t>
-  </si>
-  <si>
-    <t>"26:31"</t>
-  </si>
-  <si>
-    <t>The point about, I don't know. What are you visible standards would be good.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> As far as the other two points, they have no possible chance of being approved as the Constitutional Amendment and non-urban America, and they shouldn't if TR tried packing, the court and failed, the current effort to pack the court because of perceived political leanings. The court has leaned various directions or period of time and that's that's a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Point of intended, consequence. As far as how those constitutional democracy liberalism</t>
-  </si>
-  <si>
-    <t>"27:16"</t>
-  </si>
-  <si>
-    <t>I think an 80 or your 18 year term is far too long, I think it should be 10 or 12, they get in there and they just have their rights and do what they want.</t>
-  </si>
-  <si>
-    <t>"27:34"</t>
-  </si>
-  <si>
-    <t>I think I understand the original idea of having a Justice appointed for Life. The idea is that all the rulings would be consistent for the lifetime of the court, but I think that a lifetime appointment is way too long. 18 years may still be a little too long. Maybe 10, 12 years, ethical standards that apply to other federal judges. I think that's kind of a no-brainer, you know, in the country, no one is supposed to be above the law even the people who make the laws. So absolutely.</t>
-  </si>
-  <si>
-    <t>Lee and then adjusting the courts eyes. I think there should be 11 rather than nine though to give a more diverse opinions.</t>
-  </si>
-  <si>
-    <t>"28:18"</t>
-  </si>
-  <si>
-    <t>I see that six of the justices that are serving now were appointed by Republican president and that makes it very uneven as far as coming to a decision on a particular vote.</t>
-  </si>
-  <si>
-    <t>"28:39"</t>
-  </si>
-  <si>
-    <t>But less Point could be turned on its head. Historically, when Democrats or at least perceived leaning Democrats, the members of the Court have had a supermajority of court</t>
-  </si>
-  <si>
-    <t>"29:03"</t>
-  </si>
-  <si>
-    <t>And now I would agree on you with that. You would hope that the justices would be when they are appointed. They take out their political leanings and and judge more based on, you know, based on the facts of the case and what, what previous poor court cases. Had unfortunately, I think in this political climate though, it's been at this point, I think almost everyone is politicized, you know, leaning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A hard one way or another like the speaker said earlier, I think there's a really a big us-versus-them mentality and I think that even applies up to the justices. Rather if they notice, it themselves are not</t>
-  </si>
-  <si>
-    <t>"29:52"</t>
-  </si>
-  <si>
-    <t>I think in the last most of the last Supreme, Court Justices who have been put on the court have been chosen specifically for their political affiliations and their political leanings. And I like to think that that was not the original intent, but it probably was. But it's blatantly obvious now that there's a political agenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AA on a court, that's supposed to be the supposed to be nonpartisan.</t>
-  </si>
-  <si>
-    <t>"30:34"</t>
-  </si>
-  <si>
-    <t>I totally agree with Chelsea.</t>
-  </si>
-  <si>
-    <t>"30:44"</t>
-  </si>
-  <si>
-    <t>If you look at the intent of the Court, it was to look at the Constitution and look at anything that comes to it to decide whether or not it meets the Constitution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Supreme Court only is to interpret the laws passed by Congress as to whether their constitutional, the executive branch gets to approve, the Justice Branch should only judge should not write laws.</t>
-  </si>
-  <si>
-    <t>"31:35"</t>
-  </si>
-  <si>
-    <t>That that I understand and theoretically DNL man. That's that, that's how it's supposed to work. But like I said I think I think in recent times especially now it's hard to get out your own judgments. The the original Founders made the Constitution loose enough so that you have that flexibility to change, you know, to change things. And I think with a rigid structure, you know, with the justices being appointed for life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You do not have you do not have that, that change? So</t>
-  </si>
-  <si>
-    <t>"33:11"</t>
-  </si>
-  <si>
-    <t>Funding. It wouldn't be the the issue would be in theory of civics and the study of history would be good for</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> our educational system. But in the view of much of America think in the current climate, it would be viewed, as ultimately, a propaganda driven system, dominated by the teachers unions and others that control the curriculum. That's taught</t>
-  </si>
-  <si>
-    <t>"33:53"</t>
-  </si>
-  <si>
-    <t>I think Civics is a very important thing that people in school understand what the Constitution is and how it works. Now, I'm a big fan of the stem program but I think people need to know more about the Constitution and how things work constant and politically, as much as they should learn about the science and everything.</t>
-  </si>
-  <si>
-    <t>"34:18"</t>
-  </si>
-  <si>
-    <t>Whether ironically I was in school in the 40s.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And we were taught Reading Writing and arithmetic and a lot of History part of that history. Education was how Civics worked</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And most of us have that age got a very, very good education that was prior to the Union's, being going to go to unions coming into the education system and also the system learning meaning, either liberal or conservative depending upon how you look at it. So I'm in favor of civics. But I'm also in favor of going back at teaching, the kids, the basic needs.</t>
-  </si>
-  <si>
-    <t>"35:03"</t>
-  </si>
-  <si>
-    <t>I think one of the most interesting thing that I learned from The Briefing material, is that it says, in the early 2000s, the federal government spent about 40 million, a year on Civics education, but then in 2010 Congress, shifted education, funding to emphasize stem subjects. And by 2019, the federal government was spending 3 billion a year on stem and only 4 million on Civics program going from 40 million.</t>
-  </si>
-  <si>
-    <t>In down to 4 million. I think that says a lot. I think it contributes to the climate of anti-intellectualism or just lack of critical thinking in our country right now.</t>
-  </si>
-  <si>
-    <t>"35:44"</t>
-  </si>
-  <si>
-    <t>I agree with I think it was what and who else rich. But why don't they just teach it like they used to?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Is free just to teach them instead of spending money, but yeah, I agree with them.</t>
-  </si>
-  <si>
-    <t>"36:03"</t>
-  </si>
-  <si>
-    <t>As far as this topic, if we focus on the quote promote to liberalization diverse others in quote, the lips in Texas somewhat questionable the idea is disproven by the fact that Stanford, even one of the sponsors of all of. This is a ultimate example of the fact that you can spend</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> All kinds of money and get kind of expertise involved. But the students in mob shop down a judge with a contrary opinion to what they want to hear.</t>
-  </si>
-  <si>
-    <t>"36:48"</t>
-  </si>
-  <si>
-    <t>I think more education especially for our learning how our political system works is a great idea because if people aren't educated then they don't know what they're voting for. They don't understand people should learn history as well to understand, understand how, you know, things with things worked and they should get different viewpoints on that on that history as well. You know, just that's that's what it is.</t>
-  </si>
-  <si>
-    <t>"42:19"</t>
-  </si>
-  <si>
-    <t>I think it is still does exist. When the Constitution was being written. That came to the commit Connecticut Compromise, which basically was an argument between the large states in the small states, large states want, great amount of votes, small states wanted to large amount of votes and they came to the contest, why they form the two houses of government that will Congress where the states were represented on a pro-rated basis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Per members rapper population and each state was guaranteed. So many seats in the Senate. And I think that should still stand</t>
-  </si>
-  <si>
-    <t>"43:00"</t>
-  </si>
-  <si>
-    <t>I think a better way to phrase the question because it's just a, yes, no question at this point would be what historical reasons for implementing, the Electoral College, still apply and and again I go back to my to my original argument, the the Electoral College only applies to the presidential election and the presidential election is is for all of the people of the United States, not state.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> By state and and so you know we have I think we should re-examine the original reason for putting the Electoral College in place and see what we can put in place instead.</t>
-  </si>
-  <si>
-    <t>"43:57"</t>
-  </si>
-  <si>
-    <t>I think a bigger problem is getting children to students to pay attention in class. I think a lot of this is, is being taught now, but there's not only Sol exams. And if there are any number of YouTube videos, and comedy shows that stop people on the street. And they don't even know the difference between cities and states, countries and capitals.</t>
-  </si>
-  <si>
-    <t>"44:26"</t>
-  </si>
-  <si>
-    <t>Realities of our current day Society. You are the medium. The media is the message. And also the curriculum is the message students are stunts.</t>
-  </si>
-  <si>
-    <t>"44:49"</t>
-  </si>
-  <si>
-    <t>I think we should return to the basics and I think just looking how the, the students are doing today in school people, graduating and moving class, to grade to grade and can't even do not even up to date on their reading skills or math skills.</t>
-  </si>
-  <si>
-    <t>"45:12"</t>
-  </si>
-  <si>
-    <t>so I actually have a child in school and I I feel like I've been closer to being in school than some of our other people here and they definitely do teach the basic still kids are learning algebra math, statistics way younger than what they were my my child when she was in, fifth grade was learning like a square plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b squared trigonometry, all that type of stuff. So I don't think the issue is necessarily. We need to go back to teaching the basics. I think the basics are already being covered.</t>
-  </si>
-  <si>
-    <t>"46:25"</t>
-  </si>
-  <si>
-    <t>again, this is a yes/no question, maybe think about rephrasing this</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to have what mechanism could be put in place to not use lifetime appointments just</t>
-  </si>
-  <si>
-    <t>"46:49"</t>
-  </si>
-  <si>
-    <t>I'm in favor of setting an age limit on how long, how many years you could be on the Supreme Court, not necessarily a term limit, but let's say that they retire at 70.</t>
-  </si>
-  <si>
-    <t>You know, we have some on the course that are in their 80s so and that's posing a bit of a problem tools.</t>
-  </si>
-  <si>
-    <t>"47:12"</t>
-  </si>
-  <si>
-    <t>I definitely don't think that Supreme Court Justices should get lifetime appointments if someone gets in there and they're not doing their job, right? You can't get rid of them.</t>
-  </si>
-  <si>
-    <t>"47:27"</t>
-  </si>
-  <si>
-    <t>Walt's suggest off agenda, suggestion is valid. I think the correction could be, that there's be some sort of the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Process of pushing for a constitutional amendment. So that Supreme course Court. Justices terms were limited by their regime, a certain age in which it was assumed that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it was time to turn over the Baton to someone else.</t>
-  </si>
-  <si>
-    <t>"48:04"</t>
-  </si>
-  <si>
-    <t>I think it's a good question. I think to Chelsea's point though, you should probably rewrite it to be a little bit more. Open-ended, something along the lines of like, I don't know, what are the pros and cons of lifetime's appointments or what was the original intent for Lifetime appointments? And should we continue on without original intent or something? Rewritten, a that way? But I think the question is a good question.</t>
-  </si>
-  <si>
-    <t>"48:52"</t>
-  </si>
-  <si>
-    <t>again, I has a</t>
-  </si>
-  <si>
-    <t>Rocky Mountain member citizen of non Urban America. I would point out that reason, the compact only has 15 states. Right now is cause it has no chance whatsoever of getting the necessary number of states to and same for any other proposal to eliminate the Electoral College.</t>
-  </si>
-  <si>
-    <t>"50:00"</t>
-  </si>
-  <si>
-    <t>this is another yes no question and maybe we can get it more open ended by</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> asking it a little differently.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What kind of academic driven solutions could be put in place?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That would, you know alleviate concerns about partisan teaching?</t>
-  </si>
-  <si>
-    <t>"52:24"</t>
-  </si>
-  <si>
-    <t>I used to live in California so I've told me order with Frank choice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> which basically has resulted in a totally skewed political system to where one party controls National electoral offices and that system will not be able to be changed because of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The legislative process, it won't be able to change for decades to wear another party. The Republicans in this case can</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -535,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -641,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1723,1062 +1293,1317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS88"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"17:47"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>I don't agree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"17:55"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>I'm pretty sure the delegates that the party has are already pretty well represented at the conventions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"18:07"</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"18:07"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>I'd have to agree with with paga on that one and both of you guys. I think that they already have enough control. They don't need more control.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"19:28"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>first of all,</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"19:28"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you have to have the Electoral College because if we go to a national popular vote, five states can totally control the entire process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"19:28"</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I'm not a fan of RCV.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"19:28"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And I'm not a fan of changing it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>48356</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"19:55"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>I'm not a fan of the Electoral College. I didn't realize how it was done until a couple of years ago, and it seems like the person that gets the most votes doesn't win the election, and I don't think that's right.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"20:15"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>I think the Electoral College made sense in an earlier year when the country was much smaller and there was you could have very wide swings on, on popularity. I think the country this point is large enough to be able to have a popular vote and not have won one state override another one though. I don't think a national popular vote would be a good idea. I think each that should be up to each state should be a state level saying, but</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"20:15"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and I don't think amending the Constitution is a good idea because I opens up the door for more amendments to be made in the Constitution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"20:53"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>I think the time for the electoral college has passed, we have Communications in this country, we can reach everybody. We want to reach with all the issues and since the president is supposed to represent the entire country, I feel like the entire country should be equally weighted one vote to one person across the country. A person voting for president and Wyoming has</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"20:53"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Five times the impact on the presidential election, then somebody voting in California and I don't think that's right.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>48270</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"21:32"</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>I think the Electoral College stay exactly as it is now, to make these changes to go to on the national popular vote. The elections would really be controlled by the coasts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>48270</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"21:32"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you know, if Walt said before five states could determine the winner and there's a lot of people in Mid America would have no representation</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"22:10"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Technical issues with this unwise. Platform was unable to participate in the early morning or this discussion. I do listen to the panelists discussion and I guess I</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"22:10"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quickly can tell you that I'm an outlier. But as far as all of these issues which is in honor of in America would be viewed as nothing, more than academic political science, masturbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>48270</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"23:43"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>I think it would be horrible because if the voltage one state decides and give the majority of the votes to presidential candidate and then the electors would then go and vote for somebody else because of the national vote, and I'm totally against that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"24:00"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>These battles of already thought. When the country was founded, the founders of</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"24:00"</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That providers who are not institution and the same basic issues of urban versus rural domination. And in order to handle that they suck, the current system which works very well to balance things out between the voice of an uncontrolled Democratic mob versus the rest of the country.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"24:39"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>Actually it's no different than a national popular vote. It's a popular National popular vote. Overrides the state vote, you have a national popular vote. You don't have to state representation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"26:31"</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>The point about, I don't know. What are you visible standards would be good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"26:31"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> As far as the other two points, they have no possible chance of being approved as the Constitutional Amendment and non-urban America, and they shouldn't if TR tried packing, the court and failed, the current effort to pack the court because of perceived political leanings. The court has leaned various directions or period of time and that's that's a</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"26:31"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Point of intended, consequence. As far as how those constitutional democracy liberalism</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>48356</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"27:16"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>I think an 80 or your 18 year term is far too long, I think it should be 10 or 12, they get in there and they just have their rights and do what they want.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"27:34"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>I think I understand the original idea of having a Justice appointed for Life. The idea is that all the rulings would be consistent for the lifetime of the court, but I think that a lifetime appointment is way too long. 18 years may still be a little too long. Maybe 10, 12 years, ethical standards that apply to other federal judges. I think that's kind of a no-brainer, you know, in the country, no one is supposed to be above the law even the people who make the laws. So absolutely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"27:34"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>Lee and then adjusting the courts eyes. I think there should be 11 rather than nine though to give a more diverse opinions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>48356</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"28:18"</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="n"/>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>48356</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"28:18"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>I see that six of the justices that are serving now were appointed by Republican president and that makes it very uneven as far as coming to a decision on a particular vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"28:39"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>But less Point could be turned on its head. Historically, when Democrats or at least perceived leaning Democrats, the members of the Court have had a supermajority of court</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"29:03"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>And now I would agree on you with that. You would hope that the justices would be when they are appointed. They take out their political leanings and and judge more based on, you know, based on the facts of the case and what, what previous poor court cases. Had unfortunately, I think in this political climate though, it's been at this point, I think almost everyone is politicized, you know, leaning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"29:03"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A hard one way or another like the speaker said earlier, I think there's a really a big us-versus-them mentality and I think that even applies up to the justices. Rather if they notice, it themselves are not</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"29:52"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>I think in the last most of the last Supreme, Court Justices who have been put on the court have been chosen specifically for their political affiliations and their political leanings. And I like to think that that was not the original intent, but it probably was. But it's blatantly obvious now that there's a political agenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"29:52"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AA on a court, that's supposed to be the supposed to be nonpartisan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>48356</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"30:34"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>I totally agree with Chelsea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"30:44"</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>If you look at the intent of the Court, it was to look at the Constitution and look at anything that comes to it to decide whether or not it meets the Constitution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"30:44"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Supreme Court only is to interpret the laws passed by Congress as to whether their constitutional, the executive branch gets to approve, the Justice Branch should only judge should not write laws.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"30:44"</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n"/>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"31:35"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>That that I understand and theoretically DNL man. That's that, that's how it's supposed to work. But like I said I think I think in recent times especially now it's hard to get out your own judgments. The the original Founders made the Constitution loose enough so that you have that flexibility to change, you know, to change things. And I think with a rigid structure, you know, with the justices being appointed for life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"31:35"</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You do not have you do not have that, that change? So</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"33:11"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>Funding. It wouldn't be the the issue would be in theory of civics and the study of history would be good for</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"33:11"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> our educational system. But in the view of much of America think in the current climate, it would be viewed, as ultimately, a propaganda driven system, dominated by the teachers unions and others that control the curriculum. That's taught</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"33:11"</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n"/>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>48270</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"33:53"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>I think Civics is a very important thing that people in school understand what the Constitution is and how it works. Now, I'm a big fan of the stem program but I think people need to know more about the Constitution and how things work constant and politically, as much as they should learn about the science and everything.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"34:18"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>Whether ironically I was in school in the 40s.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"34:18"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And we were taught Reading Writing and arithmetic and a lot of History part of that history. Education was how Civics worked</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"34:18"</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And most of us have that age got a very, very good education that was prior to the Union's, being going to go to unions coming into the education system and also the system learning meaning, either liberal or conservative depending upon how you look at it. So I'm in favor of civics. But I'm also in favor of going back at teaching, the kids, the basic needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>48274</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"35:03"</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>I think one of the most interesting thing that I learned from The Briefing material, is that it says, in the early 2000s, the federal government spent about 40 million, a year on Civics education, but then in 2010 Congress, shifted education, funding to emphasize stem subjects. And by 2019, the federal government was spending 3 billion a year on stem and only 4 million on Civics program going from 40 million.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>48274</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"35:03"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>In down to 4 million. I think that says a lot. I think it contributes to the climate of anti-intellectualism or just lack of critical thinking in our country right now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="4" t="n">
         <v>48497</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>"35:44"</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="n"/>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="4" t="n">
         <v>48497</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>"35:44"</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>I agree with I think it was what and who else rich. But why don't they just teach it like they used to?</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="4" t="n">
         <v>48497</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>"35:44"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Is free just to teach them instead of spending money, but yeah, I agree with them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>"36:03"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>As far as this topic, if we focus on the quote promote to liberalization diverse others in quote, the lips in Texas somewhat questionable the idea is disproven by the fact that Stanford, even one of the sponsors of all of. This is a ultimate example of the fact that you can spend</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>"36:03"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> All kinds of money and get kind of expertise involved. But the students in mob shop down a judge with a contrary opinion to what they want to hear.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>"36:48"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>I think more education especially for our learning how our political system works is a great idea because if people aren't educated then they don't know what they're voting for. They don't understand people should learn history as well to understand, understand how, you know, things with things worked and they should get different viewpoints on that on that history as well. You know, just that's that's what it is.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="4" t="n">
         <v>48270</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>"42:19"</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="n"/>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="9">
+      <c r="A58" s="4" t="n">
         <v>48270</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>"42:19"</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>I think it is still does exist. When the Constitution was being written. That came to the commit Connecticut Compromise, which basically was an argument between the large states in the small states, large states want, great amount of votes, small states wanted to large amount of votes and they came to the contest, why they form the two houses of government that will Congress where the states were represented on a pro-rated basis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="9">
+      <c r="A59" s="4" t="n">
         <v>48270</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>"42:19"</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Per members rapper population and each state was guaranteed. So many seats in the Senate. And I think that should still stand</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="9">
+      <c r="A60" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>"43:00"</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>I think a better way to phrase the question because it's just a, yes, no question at this point would be what historical reasons for implementing, the Electoral College, still apply and and again I go back to my to my original argument, the the Electoral College only applies to the presidential election and the presidential election is is for all of the people of the United States, not state.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="9">
+      <c r="A61" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>"43:00"</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> By state and and so you know we have I think we should re-examine the original reason for putting the Electoral College in place and see what we can put in place instead.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="9">
+      <c r="A62" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>"43:57"</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>I think a bigger problem is getting children to students to pay attention in class. I think a lot of this is, is being taught now, but there's not only Sol exams. And if there are any number of YouTube videos, and comedy shows that stop people on the street. And they don't even know the difference between cities and states, countries and capitals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="9">
+      <c r="A63" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>"44:26"</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>Realities of our current day Society. You are the medium. The media is the message. And also the curriculum is the message students are stunts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="9">
+      <c r="A64" s="4" t="n">
         <v>48270</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>"44:49"</t>
+        </is>
+      </c>
+      <c r="C64" s="6" t="n"/>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="9">
+      <c r="A65" s="4" t="n">
         <v>48270</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>"44:49"</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>I think we should return to the basics and I think just looking how the, the students are doing today in school people, graduating and moving class, to grade to grade and can't even do not even up to date on their reading skills or math skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="9">
+      <c r="A66" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>"45:12"</t>
+        </is>
+      </c>
+      <c r="C66" s="6" t="n"/>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="9">
+      <c r="A67" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>"45:12"</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>so I actually have a child in school and I I feel like I've been closer to being in school than some of our other people here and they definitely do teach the basic still kids are learning algebra math, statistics way younger than what they were my my child when she was in, fifth grade was learning like a square plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="9">
+      <c r="A68" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>"45:12"</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> b squared trigonometry, all that type of stuff. So I don't think the issue is necessarily. We need to go back to teaching the basics. I think the basics are already being covered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="9">
+      <c r="A69" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>"46:25"</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>again, this is a yes/no question, maybe think about rephrasing this</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="9">
+      <c r="A70" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>"46:25"</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> to have what mechanism could be put in place to not use lifetime appointments just</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="9">
+      <c r="A71" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>"46:49"</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>I'm in favor of setting an age limit on how long, how many years you could be on the Supreme Court, not necessarily a term limit, but let's say that they retire at 70.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="9">
+      <c r="A72" s="4" t="n">
         <v>48402</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>"46:49"</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>You know, we have some on the course that are in their 80s so and that's posing a bit of a problem tools.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="9">
+      <c r="A73" s="4" t="n">
         <v>48356</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>"47:12"</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>I definitely don't think that Supreme Court Justices should get lifetime appointments if someone gets in there and they're not doing their job, right? You can't get rid of them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="9">
+      <c r="A74" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>"47:27"</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>Walt's suggest off agenda, suggestion is valid. I think the correction could be, that there's be some sort of the</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1" s="9">
+      <c r="A75" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>"47:27"</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Process of pushing for a constitutional amendment. So that Supreme course Court. Justices terms were limited by their regime, a certain age in which it was assumed that</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1" s="9">
+      <c r="A76" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4">
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>"47:27"</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> it was time to turn over the Baton to someone else.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1" s="9">
+      <c r="A77" s="4" t="n">
         <v>48503</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>"48:04"</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>I think it's a good question. I think to Chelsea's point though, you should probably rewrite it to be a little bit more. Open-ended, something along the lines of like, I don't know, what are the pros and cons of lifetime's appointments or what was the original intent for Lifetime appointments? And should we continue on without original intent or something? Rewritten, a that way? But I think the question is a good question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1" s="9">
+      <c r="A78" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="4">
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>"48:52"</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>again, I has a</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="20" customHeight="1" s="9">
+      <c r="A79" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="4">
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>"48:52"</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>Rocky Mountain member citizen of non Urban America. I would point out that reason, the compact only has 15 states. Right now is cause it has no chance whatsoever of getting the necessary number of states to and same for any other proposal to eliminate the Electoral College.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="20" customHeight="1" s="9">
+      <c r="A80" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="4">
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>"50:00"</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>this is another yes no question and maybe we can get it more open ended by</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="20" customHeight="1" s="9">
+      <c r="A81" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="4">
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>"50:00"</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> asking it a little differently.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="20" customHeight="1" s="9">
+      <c r="A82" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="6"/>
-    </row>
-    <row r="83" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="4">
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>"50:00"</t>
+        </is>
+      </c>
+      <c r="C82" s="6" t="n"/>
+    </row>
+    <row r="83" ht="20" customHeight="1" s="9">
+      <c r="A83" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="4">
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>"50:00"</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> What kind of academic driven solutions could be put in place?</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="20" customHeight="1" s="9">
+      <c r="A84" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="4">
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>"50:00"</t>
+        </is>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That would, you know alleviate concerns about partisan teaching?</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="20" customHeight="1" s="9">
+      <c r="A85" s="4" t="n">
         <v>48368</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="4">
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>"50:00"</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="n"/>
+    </row>
+    <row r="86" ht="20" customHeight="1" s="9">
+      <c r="A86" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="4">
+      <c r="B86" s="5" t="inlineStr">
+        <is>
+          <t>"52:24"</t>
+        </is>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>I used to live in California so I've told me order with Frank choice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="20" customHeight="1" s="9">
+      <c r="A87" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="4">
+      <c r="B87" s="5" t="inlineStr">
+        <is>
+          <t>"52:24"</t>
+        </is>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> which basically has resulted in a totally skewed political system to where one party controls National electoral offices and that system will not be able to be changed because of</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="20" customHeight="1" s="9">
+      <c r="A88" s="4" t="n">
         <v>9504</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>120</v>
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>"52:24"</t>
+        </is>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The legislative process, it won't be able to change for decades to wear another party. The Republicans in this case can</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE26B08-2088-E54C-B3C4-38D1F076321E}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>